--- a/src/main/resources/ShopInfo.xlsx
+++ b/src/main/resources/ShopInfo.xlsx
@@ -83,7 +83,7 @@
     <t>2.32</t>
   </si>
   <si>
-    <t>2.09</t>
+    <t>2.0999999999999996</t>
   </si>
   <si>
     <t>Friends</t>
@@ -109,22 +109,12 @@
       <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,9 +131,39 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -286,6 +306,26 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:H4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW() - 1, 2) = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW() - 1, 2) = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H4">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW() - 1, 2) = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H4">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW() - 1, 2) = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>